--- a/Excel-XLSX/UN-INS.xlsx
+++ b/Excel-XLSX/UN-INS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="925">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8BggR2</t>
+    <t>8gwZfF</t>
   </si>
   <si>
     <t>1978</t>
@@ -2670,10 +2670,10 @@
     <t>2024</t>
   </si>
   <si>
-    <t>4681</t>
-  </si>
-  <si>
-    <t>872</t>
+    <t>4350</t>
+  </si>
+  <si>
+    <t>848</t>
   </si>
   <si>
     <t>579</t>
@@ -2694,15 +2694,15 @@
     <t>586</t>
   </si>
   <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
     <t>588</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>GNB</t>
-  </si>
-  <si>
     <t>589</t>
   </si>
   <si>
@@ -2730,12 +2730,15 @@
     <t>598</t>
   </si>
   <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
     <t>599</t>
   </si>
   <si>
-    <t>871</t>
-  </si>
-  <si>
     <t>600</t>
   </si>
   <si>
@@ -2751,13 +2754,13 @@
     <t>604</t>
   </si>
   <si>
-    <t>920</t>
+    <t>834</t>
   </si>
   <si>
     <t>605</t>
   </si>
   <si>
-    <t>2857</t>
+    <t>2643</t>
   </si>
   <si>
     <t>606</t>
@@ -42531,7 +42534,7 @@
         <v>885</v>
       </c>
       <c r="P579" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q579" s="2" t="s">
         <v>34</v>
@@ -42661,10 +42664,10 @@
         <v>32</v>
       </c>
       <c r="N581" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="O581" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P581" s="2" t="s">
         <v>34</v>
@@ -42705,16 +42708,16 @@
         <v>883</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H582" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="I582" s="1" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="J582" s="2" t="s">
         <v>29</v>
@@ -42729,10 +42732,10 @@
         <v>32</v>
       </c>
       <c r="N582" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="O582" s="2" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="P582" s="2" t="s">
         <v>34</v>
@@ -42773,16 +42776,16 @@
         <v>883</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="H583" s="1" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="I583" s="1" t="s">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="J583" s="2" t="s">
         <v>29</v>
@@ -42797,10 +42800,10 @@
         <v>32</v>
       </c>
       <c r="N583" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="O583" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="P583" s="2" t="s">
         <v>34</v>
@@ -42841,16 +42844,16 @@
         <v>883</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G584" s="1" t="s">
-        <v>383</v>
+        <v>172</v>
       </c>
       <c r="H584" s="1" t="s">
-        <v>384</v>
+        <v>173</v>
       </c>
       <c r="I584" s="1" t="s">
-        <v>384</v>
+        <v>173</v>
       </c>
       <c r="J584" s="2" t="s">
         <v>29</v>
@@ -42865,10 +42868,10 @@
         <v>32</v>
       </c>
       <c r="N584" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="O584" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P584" s="2" t="s">
         <v>34</v>
@@ -42909,16 +42912,16 @@
         <v>883</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="G585" s="1" t="s">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="H585" s="1" t="s">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="I585" s="1" t="s">
-        <v>173</v>
+        <v>452</v>
       </c>
       <c r="J585" s="2" t="s">
         <v>29</v>
@@ -42933,10 +42936,10 @@
         <v>32</v>
       </c>
       <c r="N585" s="2" t="s">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="O585" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="P585" s="2" t="s">
         <v>34</v>
@@ -42977,16 +42980,16 @@
         <v>883</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="G586" s="1" t="s">
-        <v>450</v>
+        <v>124</v>
       </c>
       <c r="H586" s="1" t="s">
-        <v>451</v>
+        <v>125</v>
       </c>
       <c r="I586" s="1" t="s">
-        <v>452</v>
+        <v>125</v>
       </c>
       <c r="J586" s="2" t="s">
         <v>29</v>
@@ -43001,10 +43004,10 @@
         <v>32</v>
       </c>
       <c r="N586" s="2" t="s">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="O586" s="2" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="P586" s="2" t="s">
         <v>34</v>
@@ -43045,16 +43048,16 @@
         <v>883</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="G587" s="1" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="H587" s="1" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="I587" s="1" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="J587" s="2" t="s">
         <v>29</v>
@@ -43069,10 +43072,10 @@
         <v>32</v>
       </c>
       <c r="N587" s="2" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="O587" s="2" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="P587" s="2" t="s">
         <v>34</v>
@@ -43113,16 +43116,16 @@
         <v>883</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G588" s="1" t="s">
-        <v>195</v>
+        <v>892</v>
       </c>
       <c r="H588" s="1" t="s">
-        <v>196</v>
+        <v>893</v>
       </c>
       <c r="I588" s="1" t="s">
-        <v>197</v>
+        <v>893</v>
       </c>
       <c r="J588" s="2" t="s">
         <v>29</v>
@@ -43137,10 +43140,10 @@
         <v>32</v>
       </c>
       <c r="N588" s="2" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="O588" s="2" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="P588" s="2" t="s">
         <v>34</v>
@@ -43175,22 +43178,22 @@
         <v>22</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>883</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="G589" s="1" t="s">
-        <v>893</v>
+        <v>30</v>
       </c>
       <c r="H589" s="1" t="s">
-        <v>894</v>
+        <v>31</v>
       </c>
       <c r="I589" s="1" t="s">
-        <v>894</v>
+        <v>32</v>
       </c>
       <c r="J589" s="2" t="s">
         <v>29</v>
@@ -43208,7 +43211,7 @@
         <v>34</v>
       </c>
       <c r="O589" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="P589" s="2" t="s">
         <v>34</v>
@@ -43223,7 +43226,7 @@
         <v>34</v>
       </c>
       <c r="T589" s="2" t="s">
-        <v>34</v>
+        <v>468</v>
       </c>
       <c r="U589" s="1" t="s">
         <v>35</v>
@@ -43249,16 +43252,16 @@
         <v>883</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="G590" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="H590" s="1" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="I590" s="1" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="J590" s="2" t="s">
         <v>29</v>
@@ -43273,10 +43276,10 @@
         <v>32</v>
       </c>
       <c r="N590" s="2" t="s">
-        <v>34</v>
+        <v>352</v>
       </c>
       <c r="O590" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="P590" s="2" t="s">
         <v>34</v>
@@ -43291,7 +43294,7 @@
         <v>34</v>
       </c>
       <c r="T590" s="2" t="s">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="U590" s="1" t="s">
         <v>35</v>
@@ -43317,16 +43320,16 @@
         <v>883</v>
       </c>
       <c r="F591" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G591" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H591" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="I591" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="J591" s="2" t="s">
         <v>29</v>
@@ -43341,13 +43344,13 @@
         <v>32</v>
       </c>
       <c r="N591" s="2" t="s">
-        <v>392</v>
+        <v>527</v>
       </c>
       <c r="O591" s="2" t="s">
-        <v>86</v>
+        <v>297</v>
       </c>
       <c r="P591" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="Q591" s="2" t="s">
         <v>34</v>
@@ -43385,16 +43388,16 @@
         <v>883</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="G592" s="1" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="H592" s="1" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="I592" s="1" t="s">
-        <v>178</v>
+        <v>347</v>
       </c>
       <c r="J592" s="2" t="s">
         <v>29</v>
@@ -43409,10 +43412,10 @@
         <v>32</v>
       </c>
       <c r="N592" s="2" t="s">
-        <v>546</v>
+        <v>49</v>
       </c>
       <c r="O592" s="2" t="s">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="P592" s="2" t="s">
         <v>34</v>
@@ -43453,16 +43456,16 @@
         <v>883</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>345</v>
+        <v>204</v>
       </c>
       <c r="H593" s="1" t="s">
-        <v>346</v>
+        <v>205</v>
       </c>
       <c r="I593" s="1" t="s">
-        <v>347</v>
+        <v>205</v>
       </c>
       <c r="J593" s="2" t="s">
         <v>29</v>
@@ -43477,10 +43480,10 @@
         <v>32</v>
       </c>
       <c r="N593" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O593" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="P593" s="2" t="s">
         <v>34</v>
@@ -43521,16 +43524,16 @@
         <v>883</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="H594" s="1" t="s">
-        <v>205</v>
+        <v>425</v>
       </c>
       <c r="I594" s="1" t="s">
-        <v>205</v>
+        <v>425</v>
       </c>
       <c r="J594" s="2" t="s">
         <v>29</v>
@@ -43545,10 +43548,10 @@
         <v>32</v>
       </c>
       <c r="N594" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="O594" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="P594" s="2" t="s">
         <v>34</v>
@@ -43589,16 +43592,16 @@
         <v>883</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="G595" s="1" t="s">
-        <v>424</v>
+        <v>208</v>
       </c>
       <c r="H595" s="1" t="s">
-        <v>425</v>
+        <v>209</v>
       </c>
       <c r="I595" s="1" t="s">
-        <v>425</v>
+        <v>209</v>
       </c>
       <c r="J595" s="2" t="s">
         <v>29</v>
@@ -43613,13 +43616,13 @@
         <v>32</v>
       </c>
       <c r="N595" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="O595" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P595" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="O595" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P595" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="Q595" s="2" t="s">
         <v>34</v>
@@ -43657,16 +43660,16 @@
         <v>883</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>208</v>
+        <v>863</v>
       </c>
       <c r="H596" s="1" t="s">
-        <v>209</v>
+        <v>864</v>
       </c>
       <c r="I596" s="1" t="s">
-        <v>209</v>
+        <v>865</v>
       </c>
       <c r="J596" s="2" t="s">
         <v>29</v>
@@ -43681,13 +43684,13 @@
         <v>32</v>
       </c>
       <c r="N596" s="2" t="s">
-        <v>647</v>
+        <v>34</v>
       </c>
       <c r="O596" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="P596" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="Q596" s="2" t="s">
         <v>34</v>
@@ -43725,16 +43728,16 @@
         <v>883</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>863</v>
+        <v>501</v>
       </c>
       <c r="H597" s="1" t="s">
-        <v>864</v>
+        <v>502</v>
       </c>
       <c r="I597" s="1" t="s">
-        <v>865</v>
+        <v>502</v>
       </c>
       <c r="J597" s="2" t="s">
         <v>29</v>
@@ -43752,7 +43755,7 @@
         <v>34</v>
       </c>
       <c r="O597" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P597" s="2" t="s">
         <v>34</v>
@@ -43793,16 +43796,16 @@
         <v>883</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="G598" s="1" t="s">
-        <v>501</v>
+        <v>393</v>
       </c>
       <c r="H598" s="1" t="s">
-        <v>502</v>
+        <v>394</v>
       </c>
       <c r="I598" s="1" t="s">
-        <v>502</v>
+        <v>395</v>
       </c>
       <c r="J598" s="2" t="s">
         <v>29</v>
@@ -43861,16 +43864,16 @@
         <v>883</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="G599" s="1" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="H599" s="1" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="I599" s="1" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="J599" s="2" t="s">
         <v>29</v>
@@ -43885,10 +43888,10 @@
         <v>32</v>
       </c>
       <c r="N599" s="2" t="s">
-        <v>34</v>
+        <v>904</v>
       </c>
       <c r="O599" s="2" t="s">
-        <v>49</v>
+        <v>905</v>
       </c>
       <c r="P599" s="2" t="s">
         <v>34</v>
@@ -43923,22 +43926,22 @@
         <v>22</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>883</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="H600" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="I600" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="J600" s="2" t="s">
         <v>29</v>
@@ -43953,10 +43956,10 @@
         <v>32</v>
       </c>
       <c r="N600" s="2" t="s">
-        <v>905</v>
+        <v>34</v>
       </c>
       <c r="O600" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P600" s="2" t="s">
         <v>34</v>
@@ -43991,22 +43994,22 @@
         <v>22</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>883</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="G601" s="1" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="H601" s="1" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="I601" s="1" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="J601" s="2" t="s">
         <v>29</v>
@@ -44021,10 +44024,10 @@
         <v>32</v>
       </c>
       <c r="N601" s="2" t="s">
-        <v>34</v>
+        <v>348</v>
       </c>
       <c r="O601" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="P601" s="2" t="s">
         <v>34</v>
@@ -44059,22 +44062,22 @@
         <v>22</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>883</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="G602" s="1" t="s">
-        <v>211</v>
+        <v>688</v>
       </c>
       <c r="H602" s="1" t="s">
-        <v>212</v>
+        <v>689</v>
       </c>
       <c r="I602" s="1" t="s">
-        <v>212</v>
+        <v>689</v>
       </c>
       <c r="J602" s="2" t="s">
         <v>29</v>
@@ -44089,10 +44092,10 @@
         <v>32</v>
       </c>
       <c r="N602" s="2" t="s">
-        <v>398</v>
+        <v>49</v>
       </c>
       <c r="O602" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="P602" s="2" t="s">
         <v>34</v>
@@ -44127,22 +44130,22 @@
         <v>22</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>883</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G603" s="1" t="s">
-        <v>688</v>
+        <v>796</v>
       </c>
       <c r="H603" s="1" t="s">
-        <v>689</v>
+        <v>797</v>
       </c>
       <c r="I603" s="1" t="s">
-        <v>689</v>
+        <v>797</v>
       </c>
       <c r="J603" s="2" t="s">
         <v>29</v>
@@ -44157,10 +44160,10 @@
         <v>32</v>
       </c>
       <c r="N603" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O603" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="P603" s="2" t="s">
         <v>34</v>
@@ -44195,22 +44198,22 @@
         <v>22</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E604" s="2" t="s">
         <v>883</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>351</v>
+        <v>214</v>
       </c>
       <c r="G604" s="1" t="s">
-        <v>796</v>
+        <v>215</v>
       </c>
       <c r="H604" s="1" t="s">
-        <v>797</v>
+        <v>216</v>
       </c>
       <c r="I604" s="1" t="s">
-        <v>797</v>
+        <v>216</v>
       </c>
       <c r="J604" s="2" t="s">
         <v>29</v>
@@ -44225,10 +44228,10 @@
         <v>32</v>
       </c>
       <c r="N604" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="O604" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P604" s="2" t="s">
         <v>34</v>
@@ -44263,7 +44266,7 @@
         <v>22</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E605" s="2" t="s">
         <v>883</v>
@@ -44293,13 +44296,13 @@
         <v>32</v>
       </c>
       <c r="N605" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="O605" s="2" t="s">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="P605" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="Q605" s="2" t="s">
         <v>34</v>
@@ -44331,7 +44334,7 @@
         <v>22</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>883</v>
@@ -44376,7 +44379,7 @@
         <v>34</v>
       </c>
       <c r="S606" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="T606" s="2" t="s">
         <v>34</v>
@@ -44399,7 +44402,7 @@
         <v>22</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E607" s="2" t="s">
         <v>883</v>
@@ -44429,10 +44432,10 @@
         <v>32</v>
       </c>
       <c r="N607" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="O607" s="2" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="P607" s="2" t="s">
         <v>34</v>
@@ -44467,7 +44470,7 @@
         <v>22</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E608" s="2" t="s">
         <v>883</v>
@@ -44497,10 +44500,10 @@
         <v>32</v>
       </c>
       <c r="N608" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O608" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="P608" s="2" t="s">
         <v>34</v>
@@ -44535,7 +44538,7 @@
         <v>22</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E609" s="2" t="s">
         <v>883</v>
@@ -44568,7 +44571,7 @@
         <v>34</v>
       </c>
       <c r="O609" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P609" s="2" t="s">
         <v>34</v>
@@ -44603,7 +44606,7 @@
         <v>22</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E610" s="2" t="s">
         <v>883</v>
@@ -44671,7 +44674,7 @@
         <v>22</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>883</v>
@@ -44704,7 +44707,7 @@
         <v>34</v>
       </c>
       <c r="O611" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P611" s="2" t="s">
         <v>34</v>
@@ -44739,7 +44742,7 @@
         <v>22</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>883</v>
@@ -44769,10 +44772,10 @@
         <v>32</v>
       </c>
       <c r="N612" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O612" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P612" s="2" t="s">
         <v>34</v>
@@ -44807,7 +44810,7 @@
         <v>22</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>883</v>
@@ -44816,13 +44819,13 @@
         <v>431</v>
       </c>
       <c r="G613" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H613" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I613" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="J613" s="2" t="s">
         <v>29</v>
